--- a/Excel/Role.xlsx
+++ b/Excel/Role.xlsx
@@ -4,19 +4,57 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="属性说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="装备" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zhangyuge</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zhangyuge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-5
+白
+蓝
+黄
+紫
+橙
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="113">
   <si>
     <t>Id</t>
   </si>
@@ -226,6 +264,135 @@
   </si>
   <si>
     <t>一级属性附加到二级属性上的问题</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>SuitPos</t>
+  </si>
+  <si>
+    <t>FixedAttribute</t>
+  </si>
+  <si>
+    <t>RandomAttribute</t>
+  </si>
+  <si>
+    <t>Zhi_1</t>
+  </si>
+  <si>
+    <t>Min_2</t>
+  </si>
+  <si>
+    <t>Jing_3</t>
+  </si>
+  <si>
+    <t>Hp_4</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>要求人物等级</t>
+  </si>
+  <si>
+    <t>套装Id,0表示非套装</t>
+  </si>
+  <si>
+    <t>套装位置</t>
+  </si>
+  <si>
+    <t>固定属性</t>
+  </si>
+  <si>
+    <t>随机属性</t>
+  </si>
+  <si>
+    <t>智力范围</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
+    <t>10--20</t>
+  </si>
+  <si>
+    <t>10--21</t>
+  </si>
+  <si>
+    <t>10--22</t>
+  </si>
+  <si>
+    <t>10--23</t>
+  </si>
+  <si>
+    <t>10--24</t>
+  </si>
+  <si>
+    <t>10--25</t>
+  </si>
+  <si>
+    <t>10--26</t>
+  </si>
+  <si>
+    <t>10--27</t>
+  </si>
+  <si>
+    <t>10--28</t>
+  </si>
+  <si>
+    <t>jing Hp</t>
+  </si>
+  <si>
+    <t>atk def Hp Mp</t>
+  </si>
+  <si>
+    <t>10--29</t>
+  </si>
+  <si>
+    <t>10--30</t>
+  </si>
+  <si>
+    <t>10--31</t>
+  </si>
+  <si>
+    <t>10--32</t>
+  </si>
+  <si>
+    <t>10--33</t>
+  </si>
+  <si>
+    <t>10--34</t>
+  </si>
+  <si>
+    <t>10--35</t>
+  </si>
+  <si>
+    <t>10--36</t>
+  </si>
+  <si>
+    <t>10--37</t>
+  </si>
+  <si>
+    <t>10--38</t>
+  </si>
+  <si>
+    <t>10--39</t>
+  </si>
+  <si>
+    <t>10--40</t>
+  </si>
+  <si>
+    <t>10--41</t>
+  </si>
+  <si>
+    <t>10--42</t>
   </si>
 </sst>
 </file>
@@ -238,7 +405,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,24 +442,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,8 +466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,11 +482,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,16 +549,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,14 +579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -380,50 +586,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -435,31 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,13 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,13 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +672,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,73 +780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,71 +804,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -726,158 +832,229 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -893,9 +1070,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,7 +1423,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A1" sqref="A1:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1428,16 +1602,16 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>20</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="1">
         <v>20</v>
       </c>
       <c r="H5">
@@ -1510,16 +1684,16 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>40</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>40</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="1">
         <v>40</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="1">
         <v>40</v>
       </c>
       <c r="H7">
@@ -1592,16 +1766,16 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="1">
         <v>60</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="1">
         <v>60</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="1">
         <v>60</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="1">
         <v>60</v>
       </c>
       <c r="H9">
@@ -1674,16 +1848,16 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="1">
         <v>80</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="1">
         <v>80</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="1">
         <v>80</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="1">
         <v>80</v>
       </c>
       <c r="H11">
@@ -1756,16 +1930,16 @@
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="1">
         <v>100</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="1">
         <v>100</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="1">
         <v>100</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="1">
         <v>100</v>
       </c>
       <c r="H13">
@@ -1838,16 +2012,16 @@
       <c r="C15">
         <v>12</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="1">
         <v>120</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="1">
         <v>120</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="1">
         <v>120</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="1">
         <v>120</v>
       </c>
       <c r="H15">
@@ -1920,16 +2094,16 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="1">
         <v>140</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="1">
         <v>140</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="1">
         <v>140</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="1">
         <v>140</v>
       </c>
       <c r="H17">
@@ -2004,8 +2178,8 @@
   <sheetPr/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2014,7 +2188,7 @@
     <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="38.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2098,7 +2272,7 @@
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B12" t="s">
@@ -2115,11 +2289,11 @@
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>100</v>
       </c>
       <c r="D13">
@@ -2133,7 +2307,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>90</v>
       </c>
       <c r="D14">
@@ -2147,7 +2321,7 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>80</v>
       </c>
       <c r="D15">
@@ -2161,7 +2335,7 @@
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>70</v>
       </c>
       <c r="D16">
@@ -2175,7 +2349,7 @@
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>60</v>
       </c>
       <c r="D17">
@@ -2189,7 +2363,7 @@
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>40</v>
       </c>
       <c r="D18">
@@ -2203,7 +2377,7 @@
       <c r="B19">
         <v>7</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>38</v>
       </c>
       <c r="D19">
@@ -2217,7 +2391,7 @@
       <c r="B20">
         <v>8</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>36</v>
       </c>
       <c r="D20">
@@ -2231,7 +2405,7 @@
       <c r="B21">
         <v>9</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>34</v>
       </c>
       <c r="D21">
@@ -2245,7 +2419,7 @@
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>32</v>
       </c>
       <c r="D22">
@@ -2259,7 +2433,7 @@
       <c r="B23">
         <v>11</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <v>25</v>
       </c>
       <c r="D23">
@@ -2273,7 +2447,7 @@
       <c r="B24">
         <v>12</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <v>24</v>
       </c>
       <c r="D24">
@@ -2287,7 +2461,7 @@
       <c r="B25">
         <v>13</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="6">
         <v>23</v>
       </c>
       <c r="D25">
@@ -2301,7 +2475,7 @@
       <c r="B26">
         <v>14</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <v>22</v>
       </c>
       <c r="D26">
@@ -2315,7 +2489,7 @@
       <c r="B27">
         <v>15</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
         <v>21</v>
       </c>
       <c r="D27">
@@ -2329,7 +2503,7 @@
       <c r="B28">
         <v>16</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="7">
         <v>16</v>
       </c>
       <c r="D28">
@@ -2343,7 +2517,7 @@
       <c r="B29">
         <v>17</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
         <v>14</v>
       </c>
       <c r="D29">
@@ -2357,7 +2531,7 @@
       <c r="B30">
         <v>18</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="7">
         <v>12</v>
       </c>
       <c r="D30">
@@ -2371,7 +2545,7 @@
       <c r="B31">
         <v>19</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
         <v>10</v>
       </c>
       <c r="D31">
@@ -2385,7 +2559,7 @@
       <c r="B32">
         <v>20</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
         <v>8</v>
       </c>
       <c r="D32">
@@ -2420,16 +2594,834 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="5" max="6" width="22.2222222222222" customWidth="1"/>
+    <col min="7" max="8" width="26.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="9.66666666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>110</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>120</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>130</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1">
+        <v>140</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>150</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Role.xlsx
+++ b/Excel/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="8555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
   <si>
     <t>Id</t>
   </si>
@@ -188,6 +188,21 @@
     <t>15级</t>
   </si>
   <si>
+    <t>16级</t>
+  </si>
+  <si>
+    <t>17级</t>
+  </si>
+  <si>
+    <t>18级</t>
+  </si>
+  <si>
+    <t>19级</t>
+  </si>
+  <si>
+    <t>20级</t>
+  </si>
+  <si>
     <t>属性设计思路</t>
   </si>
   <si>
@@ -257,9 +272,15 @@
     <t>总增加</t>
   </si>
   <si>
+    <t>Enhancement文件</t>
+  </si>
+  <si>
     <t>下边就该解决装备多样性问题</t>
   </si>
   <si>
+    <t>Equipment文件</t>
+  </si>
+  <si>
     <t>装备爆率问题</t>
   </si>
   <si>
@@ -272,7 +293,7 @@
     <t>Suit</t>
   </si>
   <si>
-    <t>SuitPos</t>
+    <t>Pos</t>
   </si>
   <si>
     <t>FixedAttribute</t>
@@ -293,6 +314,21 @@
     <t>Hp_4</t>
   </si>
   <si>
+    <t>Mp_5</t>
+  </si>
+  <si>
+    <t>Atk_6</t>
+  </si>
+  <si>
+    <t>Def_7</t>
+  </si>
+  <si>
+    <t>Crit_8</t>
+  </si>
+  <si>
+    <t>CritDam_9</t>
+  </si>
+  <si>
     <t>品质</t>
   </si>
   <si>
@@ -302,7 +338,7 @@
     <t>套装Id,0表示非套装</t>
   </si>
   <si>
-    <t>套装位置</t>
+    <t>位置0-7</t>
   </si>
   <si>
     <t>固定属性</t>
@@ -314,85 +350,124 @@
     <t>智力范围</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>3,4,5,6</t>
-  </si>
-  <si>
-    <t>10--20</t>
-  </si>
-  <si>
-    <t>10--21</t>
-  </si>
-  <si>
-    <t>10--22</t>
-  </si>
-  <si>
-    <t>10--23</t>
-  </si>
-  <si>
-    <t>10--24</t>
-  </si>
-  <si>
-    <t>10--25</t>
-  </si>
-  <si>
-    <t>10--26</t>
-  </si>
-  <si>
-    <t>10--27</t>
-  </si>
-  <si>
-    <t>10--28</t>
-  </si>
-  <si>
-    <t>jing Hp</t>
-  </si>
-  <si>
-    <t>atk def Hp Mp</t>
-  </si>
-  <si>
-    <t>10--29</t>
-  </si>
-  <si>
-    <t>10--30</t>
-  </si>
-  <si>
-    <t>10--31</t>
-  </si>
-  <si>
-    <t>10--32</t>
-  </si>
-  <si>
-    <t>10--33</t>
-  </si>
-  <si>
-    <t>10--34</t>
-  </si>
-  <si>
-    <t>10--35</t>
-  </si>
-  <si>
-    <t>10--36</t>
-  </si>
-  <si>
-    <t>10--37</t>
-  </si>
-  <si>
-    <t>10--38</t>
-  </si>
-  <si>
-    <t>10--39</t>
-  </si>
-  <si>
-    <t>10--40</t>
-  </si>
-  <si>
-    <t>10--41</t>
-  </si>
-  <si>
-    <t>10--42</t>
+    <t>物品1</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,9</t>
+  </si>
+  <si>
+    <t>10,20</t>
+  </si>
+  <si>
+    <t>10,21</t>
+  </si>
+  <si>
+    <t>10,24</t>
+  </si>
+  <si>
+    <t>10,25</t>
+  </si>
+  <si>
+    <t>10,26</t>
+  </si>
+  <si>
+    <t>10,27</t>
+  </si>
+  <si>
+    <t>10,28</t>
+  </si>
+  <si>
+    <t>物品2</t>
+  </si>
+  <si>
+    <t>10,22</t>
+  </si>
+  <si>
+    <t>10,29</t>
+  </si>
+  <si>
+    <t>物品3</t>
+  </si>
+  <si>
+    <t>10,23</t>
+  </si>
+  <si>
+    <t>10,30</t>
+  </si>
+  <si>
+    <t>物品4</t>
+  </si>
+  <si>
+    <t>10,31</t>
+  </si>
+  <si>
+    <t>物品5</t>
+  </si>
+  <si>
+    <t>10,32</t>
+  </si>
+  <si>
+    <t>物品6</t>
+  </si>
+  <si>
+    <t>10,33</t>
+  </si>
+  <si>
+    <t>物品7</t>
+  </si>
+  <si>
+    <t>10,34</t>
+  </si>
+  <si>
+    <t>物品8</t>
+  </si>
+  <si>
+    <t>10,35</t>
+  </si>
+  <si>
+    <t>物品9</t>
+  </si>
+  <si>
+    <t>10,36</t>
+  </si>
+  <si>
+    <t>物品10</t>
+  </si>
+  <si>
+    <t>10,37</t>
+  </si>
+  <si>
+    <t>物品11</t>
+  </si>
+  <si>
+    <t>10,38</t>
+  </si>
+  <si>
+    <t>物品12</t>
+  </si>
+  <si>
+    <t>10,39</t>
+  </si>
+  <si>
+    <t>物品13</t>
+  </si>
+  <si>
+    <t>10,40</t>
+  </si>
+  <si>
+    <t>物品14</t>
+  </si>
+  <si>
+    <t>10,41</t>
+  </si>
+  <si>
+    <t>物品15</t>
+  </si>
+  <si>
+    <t>10,42</t>
   </si>
 </sst>
 </file>
@@ -401,8 +476,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -442,75 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -526,11 +532,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,8 +637,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,21 +656,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,18 +681,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -630,7 +693,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,19 +801,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,109 +849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +872,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -818,17 +908,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,45 +972,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -905,10 +980,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,133 +992,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1420,10 +1495,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M18"/>
+      <selection activeCell="A17" sqref="A17:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2163,6 +2238,211 @@
         <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>160</v>
+      </c>
+      <c r="E19" s="1">
+        <v>160</v>
+      </c>
+      <c r="F19" s="1">
+        <v>160</v>
+      </c>
+      <c r="G19" s="1">
+        <v>160</v>
+      </c>
+      <c r="H19">
+        <v>1600</v>
+      </c>
+      <c r="I19">
+        <v>700</v>
+      </c>
+      <c r="J19">
+        <v>190</v>
+      </c>
+      <c r="K19">
+        <v>95</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>170</v>
+      </c>
+      <c r="E20">
+        <v>170</v>
+      </c>
+      <c r="F20">
+        <v>170</v>
+      </c>
+      <c r="G20">
+        <v>170</v>
+      </c>
+      <c r="H20">
+        <v>1700</v>
+      </c>
+      <c r="I20">
+        <v>740</v>
+      </c>
+      <c r="J20">
+        <v>200</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>180</v>
+      </c>
+      <c r="E21" s="1">
+        <v>180</v>
+      </c>
+      <c r="F21" s="1">
+        <v>180</v>
+      </c>
+      <c r="G21" s="1">
+        <v>180</v>
+      </c>
+      <c r="H21">
+        <v>1800</v>
+      </c>
+      <c r="I21">
+        <v>780</v>
+      </c>
+      <c r="J21">
+        <v>210</v>
+      </c>
+      <c r="K21">
+        <v>105</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>190</v>
+      </c>
+      <c r="E22">
+        <v>190</v>
+      </c>
+      <c r="F22">
+        <v>190</v>
+      </c>
+      <c r="G22">
+        <v>190</v>
+      </c>
+      <c r="H22">
+        <v>1900</v>
+      </c>
+      <c r="I22">
+        <v>820</v>
+      </c>
+      <c r="J22">
+        <v>220</v>
+      </c>
+      <c r="K22">
+        <v>110</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>200</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>200</v>
+      </c>
+      <c r="G23" s="1">
+        <v>200</v>
+      </c>
+      <c r="H23">
+        <v>2000</v>
+      </c>
+      <c r="I23">
+        <v>860</v>
+      </c>
+      <c r="J23">
+        <v>230</v>
+      </c>
+      <c r="K23">
+        <v>115</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
     </row>
@@ -2176,13 +2456,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="35.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
@@ -2193,45 +2473,45 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="4:5">
@@ -2239,53 +2519,56 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="4:5">
       <c r="D7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="4:5">
       <c r="D8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="4:5">
       <c r="D9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" ht="53" customHeight="1" spans="1:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" ht="53" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:5">
@@ -2569,19 +2852,22 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2596,826 +2882,930 @@
   <sheetPr/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
-    <col min="5" max="6" width="22.2222222222222" customWidth="1"/>
-    <col min="7" max="8" width="26.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="8" width="26.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.66666666666667" style="1"/>
+    <col min="10" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="9.88888888888889" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="2">
+        <v>100230</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100240</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="2">
+        <v>100231</v>
+      </c>
+      <c r="M5" s="2">
+        <v>100241</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="2">
+        <v>100232</v>
+      </c>
+      <c r="M6" s="2">
+        <v>100242</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="2">
+        <v>100233</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100243</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="2">
+        <v>100234</v>
+      </c>
+      <c r="M8" s="2">
+        <v>100244</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="2">
+        <v>100235</v>
+      </c>
+      <c r="M9" s="2">
+        <v>100245</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="2">
+        <v>100236</v>
+      </c>
+      <c r="M10" s="2">
+        <v>100246</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="2">
+        <v>100237</v>
+      </c>
+      <c r="M11" s="2">
+        <v>100247</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="2">
+        <v>100238</v>
+      </c>
+      <c r="M12" s="2">
+        <v>100248</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="2">
+        <v>100239</v>
+      </c>
+      <c r="M13" s="2">
+        <v>100249</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="2">
+        <v>100240</v>
+      </c>
+      <c r="M14" s="2">
+        <v>100250</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="2">
+        <v>100241</v>
+      </c>
+      <c r="M15" s="2">
+        <v>100251</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="2">
+        <v>100242</v>
+      </c>
+      <c r="M16" s="2">
+        <v>100252</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
+      <c r="B17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
+      <c r="H17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="2">
+        <v>100243</v>
+      </c>
+      <c r="M17" s="2">
+        <v>100253</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1">
-        <v>60</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>70</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1">
-        <v>80</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>90</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>100</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>110</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1">
-        <v>120</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>130</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1">
-        <v>140</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>150</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>112</v>
+      <c r="I18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="2">
+        <v>100244</v>
+      </c>
+      <c r="M18" s="2">
+        <v>100254</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
